--- a/artfynd/A 24233-2023.xlsx
+++ b/artfynd/A 24233-2023.xlsx
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>665347.4568278288</v>
+        <v>665347</v>
       </c>
       <c r="R2" t="n">
-        <v>6570703.584790051</v>
+        <v>6570704</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -759,19 +759,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
